--- a/Old/Events_RC.xlsx
+++ b/Old/Events_RC.xlsx
@@ -7,13 +7,25 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1050">
   <si>
     <t>sample</t>
   </si>
@@ -1258,6 +1270,1902 @@
   </si>
   <si>
     <t>ReasonForRejection</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>too short</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>mffkey_cidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>mffkey_gidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>mffkeysbackup</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'1','1'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'2','1'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'3','2'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'4','2'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'5','3'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'6','3'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'7','4'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'8','4'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'9','5'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'10','5'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'11','6'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'12','6'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'13','7'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'14','7'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'15','8'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'16','8'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'17','9'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'18','9'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'19','10'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'20','10'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'21','11'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'22','11'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'23','12'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'24','12'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'25','13'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'26','13'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'27','14'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'28','14'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'29','15'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'30','15'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'31','16'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'32','16'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'33','17'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'34','17'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'35','18'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'36','18'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'37','19'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'38','19'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'39','20'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'40','20'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'41','21'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'42','21'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'43','22'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'44','22'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'45','23'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'46','23'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'47','24'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'48','24'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'49','25'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'50','25'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'51','26'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'52','26'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'53','27'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'54','27'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'55','28'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'56','28'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'57','29'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'58','29'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'59','30'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'60','30'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'61','31'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'62','31'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'63','32'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'64','32'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'65','33'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'66','33'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'67','34'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'68','34'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'69','35'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'70','35'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'71','36'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'72','36'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'73','37'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'74','37'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'75','38'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'76','38'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'77','39'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'78','39'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'79','40'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'80','40'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'81','41'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'82','41'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'83','42'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'84','42'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'85','43'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'86','43'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'87','44'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'88','44'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'89','45'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'90','45'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'91','46'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'92','46'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'93','47'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'94','47'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'95','48'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'96','48'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'97','49'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'98','49'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'99','50'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'100','50'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'101','51'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'102','51'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'103','52'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'104','52'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'105','53'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'106','53'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'107','54'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'108','54'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'109','55'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'110','55'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'111','56'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>struct('code',{'gidx','cidx'},'data',{'112','56'},'datatype',{'string','string'},'description',{'',''})</t>
+  </si>
+  <si>
+    <t>SleepStage</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Distance2NextTrigger</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>ReasonForRejection</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>too short</t>
   </si>
   <si>
     <t>OFF Period</t>
@@ -1287,7 +3195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1296,13 +3204,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4425,4 +6335,4299 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L113"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true"/>
+    <col min="4" max="4" width="5.5703125" customWidth="true"/>
+    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="6" max="6" width="12.140625" customWidth="true"/>
+    <col min="7" max="7" width="78.140625" customWidth="true"/>
+    <col min="8" max="8" width="11" customWidth="true"/>
+    <col min="9" max="9" width="11.28515625" customWidth="true"/>
+    <col min="10" max="10" width="20.140625" customWidth="true"/>
+    <col min="11" max="11" width="9" customWidth="true"/>
+    <col min="12" max="12" width="18.85546875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1039235.9997627735</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="J2" s="0">
+        <v>15</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1054245.9968028069</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="H3" s="0">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="J3" s="0">
+        <v>158</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1211943.9947900772</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="H4" s="0">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="J4" s="0">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1226961.99822402</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H5" s="0">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="J5" s="0">
+        <v>15</v>
+      </c>
+      <c r="K5" s="0">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1241974.9926326275</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="H6" s="0">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="J6" s="0">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1256992.0002964735</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="H7" s="0">
+        <v>3</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="J7" s="0">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1272006.0005334616</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="H8" s="0">
+        <v>3</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="J8" s="0">
+        <v>15</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1287020.9965405464</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="H9" s="0">
+        <v>3</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="J9" s="0">
+        <v>15</v>
+      </c>
+      <c r="K9" s="0">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1302035.9925476313</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="H10" s="0">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="J10" s="0">
+        <v>15</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1317051.9943830967</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="H11" s="0">
+        <v>3</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="J11" s="0">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1332065.9946200848</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J12" s="0">
+        <v>15</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1347081.9964555502</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="H13" s="0">
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="J13" s="0">
+        <v>15</v>
+      </c>
+      <c r="K13" s="0">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1362096.992462635</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="H14" s="0">
+        <v>3</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="J14" s="0">
+        <v>15</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1377111.9985280037</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="H15" s="0">
+        <v>3</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="J15" s="0">
+        <v>15</v>
+      </c>
+      <c r="K15" s="0">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1392125.9987649918</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="H16" s="0">
+        <v>3</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="J16" s="0">
+        <v>15</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1407142.0006004572</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="H17" s="0">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="J17" s="0">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1422156.0008374453</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="H18" s="0">
+        <v>3</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="J18" s="0">
+        <v>15</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1437172.9984430075</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="H19" s="0">
+        <v>3</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="J19" s="0">
+        <v>15</v>
+      </c>
+      <c r="K19" s="0">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1452185.992851615</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="H20" s="0">
+        <v>3</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J20" s="0">
+        <v>15</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1467203.000515461</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="H21" s="0">
+        <v>3</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="J21" s="0">
+        <v>15</v>
+      </c>
+      <c r="K21" s="0">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1482217.000752449</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H22" s="0">
+        <v>3</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J22" s="0">
+        <v>15</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1497232.9925296307</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H23" s="0">
+        <v>3</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="J23" s="0">
+        <v>15</v>
+      </c>
+      <c r="K23" s="0">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1512246.9927666187</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="H24" s="0">
+        <v>3</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="J24" s="0">
+        <v>15</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1527262.9946020842</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="H25" s="0">
+        <v>3</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="J25" s="0">
+        <v>15</v>
+      </c>
+      <c r="K25" s="0">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>1542276.9948390722</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="H26" s="0">
+        <v>3</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J26" s="0">
+        <v>15</v>
+      </c>
+      <c r="K26" s="0">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>1557292.9966745377</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="H27" s="0">
+        <v>3</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="J27" s="0">
+        <v>15</v>
+      </c>
+      <c r="K27" s="0">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1572307.9926816225</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="H28" s="0">
+        <v>3</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="J28" s="0">
+        <v>15</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>1587322.9987469912</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="H29" s="0">
+        <v>3</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="J29" s="0">
+        <v>15</v>
+      </c>
+      <c r="K29" s="0">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>1602336.9989839792</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H30" s="0">
+        <v>3</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="J30" s="0">
+        <v>15</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>1617353.9965895414</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="H31" s="0">
+        <v>3</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="J31" s="0">
+        <v>15</v>
+      </c>
+      <c r="K31" s="0">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1632366.9909981489</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="H32" s="0">
+        <v>3</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="J32" s="0">
+        <v>15</v>
+      </c>
+      <c r="K32" s="0">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1647383.9986619949</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="H33" s="0">
+        <v>3</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J33" s="0">
+        <v>15</v>
+      </c>
+      <c r="K33" s="0">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1662397.998898983</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="H34" s="0">
+        <v>4</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="J34" s="0">
+        <v>15</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1677414.0007344484</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="H35" s="0">
+        <v>4</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="J35" s="0">
+        <v>15</v>
+      </c>
+      <c r="K35" s="0">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1692428.0009714365</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="H36" s="0">
+        <v>3</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="J36" s="0">
+        <v>15</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>1707444.9985769987</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="H37" s="0">
+        <v>3</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="J37" s="0">
+        <v>15</v>
+      </c>
+      <c r="K37" s="0">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1722457.9929856062</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="H38" s="0">
+        <v>3</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="J38" s="0">
+        <v>15</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1737473.9948210716</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="H39" s="0">
+        <v>3</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="J39" s="0">
+        <v>15</v>
+      </c>
+      <c r="K39" s="0">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>1752488.9908281565</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H40" s="0">
+        <v>3</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J40" s="0">
+        <v>15</v>
+      </c>
+      <c r="K40" s="0">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>1767503.9968935251</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="H41" s="0">
+        <v>3</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J41" s="0">
+        <v>15</v>
+      </c>
+      <c r="K41" s="0">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1782518.99290061</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H42" s="0">
+        <v>3</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="J42" s="0">
+        <v>15</v>
+      </c>
+      <c r="K42" s="0">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>1797533.9989659786</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="H43" s="0">
+        <v>3</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="J43" s="0">
+        <v>15</v>
+      </c>
+      <c r="K43" s="0">
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>1812548.9949730635</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="H44" s="0">
+        <v>3</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="J44" s="0">
+        <v>15</v>
+      </c>
+      <c r="K44" s="0">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1827564.9968085289</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="H45" s="0">
+        <v>3</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="J45" s="0">
+        <v>15</v>
+      </c>
+      <c r="K45" s="0">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>1842577.9912171364</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="H46" s="0">
+        <v>4</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="J46" s="0">
+        <v>15</v>
+      </c>
+      <c r="K46" s="0">
+        <v>0</v>
+      </c>
+      <c r="L46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1857594.9988809824</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H47" s="0">
+        <v>4</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="J47" s="0">
+        <v>15</v>
+      </c>
+      <c r="K47" s="0">
+        <v>1</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>1872608.9991179705</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="H48" s="0">
+        <v>3</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="J48" s="0">
+        <v>15</v>
+      </c>
+      <c r="K48" s="0">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>1887624.9908951521</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="H49" s="0">
+        <v>3</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="J49" s="0">
+        <v>15</v>
+      </c>
+      <c r="K49" s="0">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1902638.9911321402</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="H50" s="0">
+        <v>3</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J50" s="0">
+        <v>15</v>
+      </c>
+      <c r="K50" s="0">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>1917655.9987959862</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="H51" s="0">
+        <v>3</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J51" s="0">
+        <v>15</v>
+      </c>
+      <c r="K51" s="0">
+        <v>1</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1932668.9932045937</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="H52" s="0">
+        <v>4</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="J52" s="0">
+        <v>15</v>
+      </c>
+      <c r="K52" s="0">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>1947686.0008684397</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="H53" s="0">
+        <v>4</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="J53" s="0">
+        <v>15</v>
+      </c>
+      <c r="K53" s="0">
+        <v>1</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1962699.9910471439</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="H54" s="0">
+        <v>4</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="J54" s="0">
+        <v>15</v>
+      </c>
+      <c r="K54" s="0">
+        <v>0</v>
+      </c>
+      <c r="L54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>1977714.9971125126</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="H55" s="0">
+        <v>4</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="J55" s="0">
+        <v>15</v>
+      </c>
+      <c r="K55" s="0">
+        <v>1</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1992729.9931195974</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="H56" s="0">
+        <v>4</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="J56" s="0">
+        <v>15</v>
+      </c>
+      <c r="K56" s="0">
+        <v>0</v>
+      </c>
+      <c r="L56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>2007745.9949550629</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="H57" s="0">
+        <v>4</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="J57" s="0">
+        <v>15</v>
+      </c>
+      <c r="K57" s="0">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>2022759.9951920509</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="H58" s="0">
+        <v>3</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="J58" s="0">
+        <v>15</v>
+      </c>
+      <c r="K58" s="0">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>2037775.9970275164</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="H59" s="0">
+        <v>3</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="J59" s="0">
+        <v>15</v>
+      </c>
+      <c r="K59" s="0">
+        <v>1</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>2052790.9930346012</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="H60" s="0">
+        <v>4</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="J60" s="0">
+        <v>15</v>
+      </c>
+      <c r="K60" s="0">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>2067805.9990999699</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="H61" s="0">
+        <v>4</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="J61" s="0">
+        <v>58</v>
+      </c>
+      <c r="K61" s="0">
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>2125400.9995160103</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="H62" s="0">
+        <v>3</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="J62" s="0">
+        <v>15</v>
+      </c>
+      <c r="K62" s="0">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>2140414.9997529984</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="H63" s="0">
+        <v>3</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="J63" s="0">
+        <v>15</v>
+      </c>
+      <c r="K63" s="0">
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>2155428.9999899864</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="H64" s="0">
+        <v>3</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="J64" s="0">
+        <v>15</v>
+      </c>
+      <c r="K64" s="0">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>2170444.991767168</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="H65" s="0">
+        <v>3</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="J65" s="0">
+        <v>15</v>
+      </c>
+      <c r="K65" s="0">
+        <v>1</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>2185458.9920041561</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="H66" s="0">
+        <v>3</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="J66" s="0">
+        <v>15</v>
+      </c>
+      <c r="K66" s="0">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>2200475.9996680021</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="H67" s="0">
+        <v>3</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="J67" s="0">
+        <v>15</v>
+      </c>
+      <c r="K67" s="0">
+        <v>1</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>2215488.9940766096</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="H68" s="0">
+        <v>3</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="J68" s="0">
+        <v>15</v>
+      </c>
+      <c r="K68" s="0">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>2230505.9916821718</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="H69" s="0">
+        <v>4</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="J69" s="0">
+        <v>15</v>
+      </c>
+      <c r="K69" s="0">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>2245519.9919191599</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="H70" s="0">
+        <v>4</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="J70" s="0">
+        <v>15</v>
+      </c>
+      <c r="K70" s="0">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>2260535.9937546253</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="H71" s="0">
+        <v>4</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="J71" s="0">
+        <v>15</v>
+      </c>
+      <c r="K71" s="0">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>2275549.9939916134</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="H72" s="0">
+        <v>4</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="0">
+        <v>9</v>
+      </c>
+      <c r="K72" s="0">
+        <v>1</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>2284501.9973365068</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="H73" s="0">
+        <v>4</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J73" s="0">
+        <v>117</v>
+      </c>
+      <c r="K73" s="0">
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>2401338.9918503761</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="H74" s="0">
+        <v>3</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J74" s="0">
+        <v>15</v>
+      </c>
+      <c r="K74" s="0">
+        <v>0</v>
+      </c>
+      <c r="L74" s="0"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>2416352.9920873642</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="H75" s="0">
+        <v>3</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J75" s="0">
+        <v>15</v>
+      </c>
+      <c r="K75" s="0">
+        <v>1</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>2431365.9965542555</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="H76" s="0">
+        <v>3</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J76" s="0">
+        <v>15</v>
+      </c>
+      <c r="K76" s="0">
+        <v>0</v>
+      </c>
+      <c r="L76" s="0"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>2446382.9941598177</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="H77" s="0">
+        <v>3</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J77" s="0">
+        <v>15</v>
+      </c>
+      <c r="K77" s="0">
+        <v>1</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>2461396.9943968058</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="H78" s="0">
+        <v>3</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J78" s="0">
+        <v>15</v>
+      </c>
+      <c r="K78" s="0">
+        <v>0</v>
+      </c>
+      <c r="L78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>2476412.9962322712</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="H79" s="0">
+        <v>3</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J79" s="0">
+        <v>15</v>
+      </c>
+      <c r="K79" s="0">
+        <v>1</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>2491426.9964692593</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="H80" s="0">
+        <v>3</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J80" s="0">
+        <v>15</v>
+      </c>
+      <c r="K80" s="0">
+        <v>0</v>
+      </c>
+      <c r="L80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>2506443.9940748215</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="H81" s="0">
+        <v>3</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J81" s="0">
+        <v>15</v>
+      </c>
+      <c r="K81" s="0">
+        <v>1</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>2521456.9985417128</v>
+      </c>
+      <c r="B82" s="0">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="H82" s="0">
+        <v>3</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J82" s="0">
+        <v>15</v>
+      </c>
+      <c r="K82" s="0">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>2536473.0003771782</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="H83" s="0">
+        <v>3</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J83" s="0">
+        <v>15</v>
+      </c>
+      <c r="K83" s="0">
+        <v>1</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>2551487.996384263</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="H84" s="0">
+        <v>3</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J84" s="0">
+        <v>15</v>
+      </c>
+      <c r="K84" s="0">
+        <v>0</v>
+      </c>
+      <c r="L84" s="0"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>2566502.9923913479</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="H85" s="0">
+        <v>3</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J85" s="0">
+        <v>15</v>
+      </c>
+      <c r="K85" s="0">
+        <v>1</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>2581517.9984567165</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="H86" s="0">
+        <v>4</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J86" s="0">
+        <v>15</v>
+      </c>
+      <c r="K86" s="0">
+        <v>0</v>
+      </c>
+      <c r="L86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>2596534.000292182</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="H87" s="0">
+        <v>4</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J87" s="0">
+        <v>15</v>
+      </c>
+      <c r="K87" s="0">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>2611548.00052917</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="H88" s="0">
+        <v>3</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J88" s="0">
+        <v>15</v>
+      </c>
+      <c r="K88" s="0">
+        <v>0</v>
+      </c>
+      <c r="L88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>2626563.9923063517</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="H89" s="0">
+        <v>3</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J89" s="0">
+        <v>15</v>
+      </c>
+      <c r="K89" s="0">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>2641578.9983717203</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="H90" s="0">
+        <v>4</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J90" s="0">
+        <v>15</v>
+      </c>
+      <c r="K90" s="0">
+        <v>0</v>
+      </c>
+      <c r="L90" s="0"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>2656593.9943788052</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="H91" s="0">
+        <v>4</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J91" s="0">
+        <v>15</v>
+      </c>
+      <c r="K91" s="0">
+        <v>1</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>2671607.9946157932</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="H92" s="0">
+        <v>4</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J92" s="0">
+        <v>15</v>
+      </c>
+      <c r="K92" s="0">
+        <v>0</v>
+      </c>
+      <c r="L92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>2686624.9922213554</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="H93" s="0">
+        <v>4</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J93" s="0">
+        <v>15</v>
+      </c>
+      <c r="K93" s="0">
+        <v>1</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>2701637.9966882467</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="H94" s="0">
+        <v>4</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J94" s="0">
+        <v>15</v>
+      </c>
+      <c r="K94" s="0">
+        <v>0</v>
+      </c>
+      <c r="L94" s="0"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>2716654.9942938089</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="H95" s="0">
+        <v>4</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J95" s="0">
+        <v>15</v>
+      </c>
+      <c r="K95" s="0">
+        <v>1</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>2731667.9987607002</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="H96" s="0">
+        <v>4</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J96" s="0">
+        <v>15</v>
+      </c>
+      <c r="K96" s="0">
+        <v>0</v>
+      </c>
+      <c r="L96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>2746684.9963662624</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="H97" s="0">
+        <v>4</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J97" s="0">
+        <v>15</v>
+      </c>
+      <c r="K97" s="0">
+        <v>1</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>2761698.9966032505</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="H98" s="0">
+        <v>4</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J98" s="0">
+        <v>15</v>
+      </c>
+      <c r="K98" s="0">
+        <v>0</v>
+      </c>
+      <c r="L98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>2776714.9984387159</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="H99" s="0">
+        <v>4</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J99" s="0">
+        <v>15</v>
+      </c>
+      <c r="K99" s="0">
+        <v>1</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>2791728.998675704</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="H100" s="0">
+        <v>4</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J100" s="0">
+        <v>15</v>
+      </c>
+      <c r="K100" s="0">
+        <v>0</v>
+      </c>
+      <c r="L100" s="0"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>2806745.0005111694</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="H101" s="0">
+        <v>4</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J101" s="0">
+        <v>15</v>
+      </c>
+      <c r="K101" s="0">
+        <v>1</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>2821759.0007481575</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="H102" s="0">
+        <v>3</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J102" s="0">
+        <v>15</v>
+      </c>
+      <c r="K102" s="0">
+        <v>0</v>
+      </c>
+      <c r="L102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>2836774.9925253391</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H103" s="0">
+        <v>3</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J103" s="0">
+        <v>15</v>
+      </c>
+      <c r="K103" s="0">
+        <v>1</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>2851789.9985907078</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="H104" s="0">
+        <v>4</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J104" s="0">
+        <v>15</v>
+      </c>
+      <c r="K104" s="0">
+        <v>0</v>
+      </c>
+      <c r="L104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>2866804.9945977926</v>
+      </c>
+      <c r="B105" s="0">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="H105" s="0">
+        <v>4</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J105" s="0">
+        <v>15</v>
+      </c>
+      <c r="K105" s="0">
+        <v>1</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>2881820.0006631613</v>
+      </c>
+      <c r="B106" s="0">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="H106" s="0">
+        <v>4</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J106" s="0">
+        <v>3</v>
+      </c>
+      <c r="K106" s="0">
+        <v>1</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>2884614.9965671301</v>
+      </c>
+      <c r="B107" s="0">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="H107" s="0">
+        <v>4</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J107" s="0">
+        <v>40</v>
+      </c>
+      <c r="K107" s="0">
+        <v>1</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>2924629.9977896214</v>
+      </c>
+      <c r="B108" s="0">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="H108" s="0">
+        <v>3</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J108" s="0">
+        <v>15</v>
+      </c>
+      <c r="K108" s="0">
+        <v>0</v>
+      </c>
+      <c r="L108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>2939647.9911652803</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="H109" s="0">
+        <v>3</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J109" s="0">
+        <v>15</v>
+      </c>
+      <c r="K109" s="0">
+        <v>1</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>2954661.9914022684</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="H110" s="0">
+        <v>3</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J110" s="0">
+        <v>15</v>
+      </c>
+      <c r="K110" s="0">
+        <v>0</v>
+      </c>
+      <c r="L110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>2969677.9932377338</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="H111" s="0">
+        <v>3</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J111" s="0">
+        <v>15</v>
+      </c>
+      <c r="K111" s="0">
+        <v>1</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>2984691.9934747219</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="H112" s="0">
+        <v>3</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J112" s="0">
+        <v>15</v>
+      </c>
+      <c r="K112" s="0">
+        <v>0</v>
+      </c>
+      <c r="L112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>2999707.9953101873</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="H113" s="0">
+        <v>3</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J113" s="0">
+        <v>0</v>
+      </c>
+      <c r="K113" s="0">
+        <v>1</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
 </file>